--- a/template/RAPOR_K1.xlsx
+++ b/template/RAPOR_K1.xlsx
@@ -1015,6 +1015,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1025,132 +1151,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A12:AD304"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O284" sqref="O284:O285"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A205" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L222" sqref="L222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2129,22 +2129,22 @@
         <v>1</v>
       </c>
       <c r="D128" s="54"/>
-      <c r="E128" s="80" t="s">
+      <c r="E128" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F128" s="80"/>
-      <c r="G128" s="80"/>
-      <c r="H128" s="80"/>
-      <c r="I128" s="80"/>
-      <c r="J128" s="80"/>
-      <c r="K128" s="80"/>
-      <c r="L128" s="80"/>
-      <c r="M128" s="80"/>
-      <c r="N128" s="80"/>
-      <c r="O128" s="80"/>
-      <c r="P128" s="80"/>
-      <c r="Q128" s="80"/>
-      <c r="R128" s="80"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
+      <c r="L128" s="67"/>
+      <c r="M128" s="67"/>
+      <c r="N128" s="67"/>
+      <c r="O128" s="67"/>
+      <c r="P128" s="67"/>
+      <c r="Q128" s="67"/>
+      <c r="R128" s="67"/>
     </row>
     <row r="129" spans="3:18" ht="23.25">
       <c r="C129" s="54"/>
@@ -2168,22 +2168,22 @@
         <v>2</v>
       </c>
       <c r="D130" s="54"/>
-      <c r="E130" s="80" t="s">
+      <c r="E130" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F130" s="80"/>
-      <c r="G130" s="80"/>
-      <c r="H130" s="80"/>
-      <c r="I130" s="80"/>
-      <c r="J130" s="80"/>
-      <c r="K130" s="80"/>
-      <c r="L130" s="80"/>
-      <c r="M130" s="80"/>
-      <c r="N130" s="80"/>
-      <c r="O130" s="80"/>
-      <c r="P130" s="80"/>
-      <c r="Q130" s="80"/>
-      <c r="R130" s="80"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="67"/>
+      <c r="K130" s="67"/>
+      <c r="L130" s="67"/>
+      <c r="M130" s="67"/>
+      <c r="N130" s="67"/>
+      <c r="O130" s="67"/>
+      <c r="P130" s="67"/>
+      <c r="Q130" s="67"/>
+      <c r="R130" s="67"/>
     </row>
     <row r="131" spans="3:18" ht="23.25">
       <c r="C131" s="54"/>
@@ -2207,22 +2207,22 @@
         <v>3</v>
       </c>
       <c r="D132" s="54"/>
-      <c r="E132" s="80" t="s">
+      <c r="E132" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F132" s="80"/>
-      <c r="G132" s="80"/>
-      <c r="H132" s="80"/>
-      <c r="I132" s="80"/>
-      <c r="J132" s="80"/>
-      <c r="K132" s="80"/>
-      <c r="L132" s="80"/>
-      <c r="M132" s="80"/>
-      <c r="N132" s="80"/>
-      <c r="O132" s="80"/>
-      <c r="P132" s="80"/>
-      <c r="Q132" s="80"/>
-      <c r="R132" s="80"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="67"/>
+      <c r="J132" s="67"/>
+      <c r="K132" s="67"/>
+      <c r="L132" s="67"/>
+      <c r="M132" s="67"/>
+      <c r="N132" s="67"/>
+      <c r="O132" s="67"/>
+      <c r="P132" s="67"/>
+      <c r="Q132" s="67"/>
+      <c r="R132" s="67"/>
     </row>
     <row r="133" spans="3:18" ht="23.25">
       <c r="C133" s="54"/>
@@ -2246,22 +2246,22 @@
         <v>4</v>
       </c>
       <c r="D134" s="54"/>
-      <c r="E134" s="80" t="s">
+      <c r="E134" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F134" s="80"/>
-      <c r="G134" s="80"/>
-      <c r="H134" s="80"/>
-      <c r="I134" s="80"/>
-      <c r="J134" s="80"/>
-      <c r="K134" s="80"/>
-      <c r="L134" s="80"/>
-      <c r="M134" s="80"/>
-      <c r="N134" s="80"/>
-      <c r="O134" s="80"/>
-      <c r="P134" s="80"/>
-      <c r="Q134" s="80"/>
-      <c r="R134" s="80"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="67"/>
+      <c r="I134" s="67"/>
+      <c r="J134" s="67"/>
+      <c r="K134" s="67"/>
+      <c r="L134" s="67"/>
+      <c r="M134" s="67"/>
+      <c r="N134" s="67"/>
+      <c r="O134" s="67"/>
+      <c r="P134" s="67"/>
+      <c r="Q134" s="67"/>
+      <c r="R134" s="67"/>
     </row>
     <row r="145" spans="4:30" ht="15.75">
       <c r="S145" s="42"/>
@@ -2661,18 +2661,18 @@
       <c r="H202" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="I202" s="80" t="s">
+      <c r="I202" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="J202" s="80"/>
-      <c r="K202" s="80"/>
-      <c r="L202" s="80"/>
-      <c r="M202" s="80"/>
-      <c r="N202" s="80"/>
-      <c r="O202" s="80"/>
-      <c r="P202" s="80"/>
-      <c r="Q202" s="80"/>
-      <c r="R202" s="80"/>
+      <c r="J202" s="67"/>
+      <c r="K202" s="67"/>
+      <c r="L202" s="67"/>
+      <c r="M202" s="67"/>
+      <c r="N202" s="67"/>
+      <c r="O202" s="67"/>
+      <c r="P202" s="67"/>
+      <c r="Q202" s="67"/>
+      <c r="R202" s="67"/>
     </row>
     <row r="203" spans="2:18" ht="23.25">
       <c r="B203" s="57"/>
@@ -2855,18 +2855,18 @@
       <c r="H212" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="I212" s="80" t="s">
+      <c r="I212" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="J212" s="80"/>
-      <c r="K212" s="80"/>
-      <c r="L212" s="80"/>
-      <c r="M212" s="80"/>
-      <c r="N212" s="80"/>
-      <c r="O212" s="80"/>
-      <c r="P212" s="80"/>
-      <c r="Q212" s="80"/>
-      <c r="R212" s="80"/>
+      <c r="J212" s="67"/>
+      <c r="K212" s="67"/>
+      <c r="L212" s="67"/>
+      <c r="M212" s="67"/>
+      <c r="N212" s="67"/>
+      <c r="O212" s="67"/>
+      <c r="P212" s="67"/>
+      <c r="Q212" s="67"/>
+      <c r="R212" s="67"/>
     </row>
     <row r="213" spans="2:18" ht="23.25">
       <c r="B213" s="57"/>
@@ -2992,14 +2992,18 @@
       <c r="H219" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="I219" s="55" t="s">
+      <c r="I219" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="J219" s="55"/>
-      <c r="K219" s="55"/>
-      <c r="L219" s="55"/>
-      <c r="M219" s="55"/>
-      <c r="N219" s="56"/>
+      <c r="J219" s="67"/>
+      <c r="K219" s="67"/>
+      <c r="L219" s="67"/>
+      <c r="M219" s="67"/>
+      <c r="N219" s="67"/>
+      <c r="O219" s="67"/>
+      <c r="P219" s="67"/>
+      <c r="Q219" s="67"/>
+      <c r="R219" s="67"/>
     </row>
     <row r="220" spans="2:18" ht="23.25">
       <c r="B220" s="57"/>
@@ -3007,12 +3011,16 @@
       <c r="D220" s="56"/>
       <c r="E220" s="56"/>
       <c r="H220" s="56"/>
-      <c r="I220" s="60"/>
-      <c r="J220" s="60"/>
-      <c r="K220" s="60"/>
-      <c r="L220" s="60"/>
-      <c r="M220" s="60"/>
-      <c r="N220" s="56"/>
+      <c r="I220" s="67"/>
+      <c r="J220" s="67"/>
+      <c r="K220" s="67"/>
+      <c r="L220" s="67"/>
+      <c r="M220" s="67"/>
+      <c r="N220" s="67"/>
+      <c r="O220" s="67"/>
+      <c r="P220" s="67"/>
+      <c r="Q220" s="67"/>
+      <c r="R220" s="67"/>
     </row>
     <row r="221" spans="2:18" ht="23.25">
       <c r="B221" s="57"/>
@@ -3343,26 +3351,26 @@
       <c r="R247" s="36"/>
     </row>
     <row r="248" spans="1:18" ht="47.25" customHeight="1">
-      <c r="A248" s="81" t="s">
+      <c r="A248" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B248" s="82"/>
-      <c r="C248" s="82"/>
-      <c r="D248" s="82"/>
-      <c r="E248" s="82"/>
-      <c r="F248" s="82"/>
-      <c r="G248" s="82"/>
-      <c r="H248" s="82"/>
-      <c r="I248" s="82"/>
-      <c r="J248" s="83"/>
-      <c r="K248" s="90" t="s">
+      <c r="B248" s="69"/>
+      <c r="C248" s="69"/>
+      <c r="D248" s="69"/>
+      <c r="E248" s="69"/>
+      <c r="F248" s="69"/>
+      <c r="G248" s="69"/>
+      <c r="H248" s="69"/>
+      <c r="I248" s="69"/>
+      <c r="J248" s="70"/>
+      <c r="K248" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="L248" s="91"/>
-      <c r="M248" s="90" t="s">
+      <c r="L248" s="78"/>
+      <c r="M248" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="N248" s="91"/>
+      <c r="N248" s="78"/>
       <c r="O248" s="37" t="s">
         <v>93</v>
       </c>
@@ -3371,40 +3379,40 @@
       <c r="R248" s="37"/>
     </row>
     <row r="249" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A249" s="84"/>
-      <c r="B249" s="85"/>
-      <c r="C249" s="85"/>
-      <c r="D249" s="85"/>
-      <c r="E249" s="85"/>
-      <c r="F249" s="85"/>
-      <c r="G249" s="85"/>
-      <c r="H249" s="85"/>
-      <c r="I249" s="85"/>
-      <c r="J249" s="86"/>
-      <c r="K249" s="92"/>
-      <c r="L249" s="93"/>
-      <c r="M249" s="92"/>
-      <c r="N249" s="93"/>
-      <c r="O249" s="94" t="s">
+      <c r="A249" s="71"/>
+      <c r="B249" s="72"/>
+      <c r="C249" s="72"/>
+      <c r="D249" s="72"/>
+      <c r="E249" s="72"/>
+      <c r="F249" s="72"/>
+      <c r="G249" s="72"/>
+      <c r="H249" s="72"/>
+      <c r="I249" s="72"/>
+      <c r="J249" s="73"/>
+      <c r="K249" s="79"/>
+      <c r="L249" s="80"/>
+      <c r="M249" s="79"/>
+      <c r="N249" s="80"/>
+      <c r="O249" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="P249" s="90" t="s">
+      <c r="P249" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="Q249" s="96"/>
-      <c r="R249" s="91"/>
+      <c r="Q249" s="83"/>
+      <c r="R249" s="78"/>
     </row>
     <row r="250" spans="1:18" ht="15.75">
-      <c r="A250" s="87"/>
-      <c r="B250" s="88"/>
-      <c r="C250" s="88"/>
-      <c r="D250" s="88"/>
-      <c r="E250" s="88"/>
-      <c r="F250" s="88"/>
-      <c r="G250" s="88"/>
-      <c r="H250" s="88"/>
-      <c r="I250" s="88"/>
-      <c r="J250" s="89"/>
+      <c r="A250" s="74"/>
+      <c r="B250" s="75"/>
+      <c r="C250" s="75"/>
+      <c r="D250" s="75"/>
+      <c r="E250" s="75"/>
+      <c r="F250" s="75"/>
+      <c r="G250" s="75"/>
+      <c r="H250" s="75"/>
+      <c r="I250" s="75"/>
+      <c r="J250" s="76"/>
       <c r="K250" s="24" t="s">
         <v>96</v>
       </c>
@@ -3417,24 +3425,24 @@
       <c r="N250" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="O250" s="95"/>
-      <c r="P250" s="92"/>
-      <c r="Q250" s="97"/>
-      <c r="R250" s="93"/>
+      <c r="O250" s="82"/>
+      <c r="P250" s="79"/>
+      <c r="Q250" s="84"/>
+      <c r="R250" s="80"/>
     </row>
     <row r="251" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A251" s="107" t="s">
+      <c r="A251" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="B251" s="108"/>
-      <c r="C251" s="108"/>
-      <c r="D251" s="108"/>
-      <c r="E251" s="108"/>
-      <c r="F251" s="108"/>
-      <c r="G251" s="108"/>
-      <c r="H251" s="108"/>
-      <c r="I251" s="108"/>
-      <c r="J251" s="109"/>
+      <c r="B251" s="95"/>
+      <c r="C251" s="95"/>
+      <c r="D251" s="95"/>
+      <c r="E251" s="95"/>
+      <c r="F251" s="95"/>
+      <c r="G251" s="95"/>
+      <c r="H251" s="95"/>
+      <c r="I251" s="95"/>
+      <c r="J251" s="96"/>
       <c r="K251" s="25" t="s">
         <v>99</v>
       </c>
@@ -3446,27 +3454,27 @@
       <c r="O251" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="P251" s="98" t="s">
+      <c r="P251" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="Q251" s="99"/>
-      <c r="R251" s="100"/>
+      <c r="Q251" s="86"/>
+      <c r="R251" s="87"/>
     </row>
     <row r="252" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A252" s="64">
+      <c r="A252" s="106">
         <v>1</v>
       </c>
-      <c r="B252" s="65"/>
-      <c r="C252" s="74" t="s">
+      <c r="B252" s="107"/>
+      <c r="C252" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="D252" s="75"/>
-      <c r="E252" s="75"/>
-      <c r="F252" s="75"/>
-      <c r="G252" s="75"/>
-      <c r="H252" s="75"/>
-      <c r="I252" s="75"/>
-      <c r="J252" s="76"/>
+      <c r="D252" s="65"/>
+      <c r="E252" s="65"/>
+      <c r="F252" s="65"/>
+      <c r="G252" s="65"/>
+      <c r="H252" s="65"/>
+      <c r="I252" s="65"/>
+      <c r="J252" s="66"/>
       <c r="K252" s="62">
         <v>3.32</v>
       </c>
@@ -3482,49 +3490,49 @@
       <c r="O252" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P252" s="101"/>
-      <c r="Q252" s="102"/>
-      <c r="R252" s="103"/>
+      <c r="P252" s="88"/>
+      <c r="Q252" s="89"/>
+      <c r="R252" s="90"/>
     </row>
     <row r="253" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A253" s="66"/>
-      <c r="B253" s="67"/>
-      <c r="C253" s="68" t="s">
+      <c r="A253" s="108"/>
+      <c r="B253" s="109"/>
+      <c r="C253" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D253" s="69"/>
-      <c r="E253" s="69" t="s">
+      <c r="D253" s="97"/>
+      <c r="E253" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="F253" s="69"/>
-      <c r="G253" s="69"/>
-      <c r="H253" s="69"/>
-      <c r="I253" s="69"/>
-      <c r="J253" s="70"/>
+      <c r="F253" s="97"/>
+      <c r="G253" s="97"/>
+      <c r="H253" s="97"/>
+      <c r="I253" s="97"/>
+      <c r="J253" s="98"/>
       <c r="K253" s="63"/>
       <c r="L253" s="63"/>
       <c r="M253" s="63"/>
       <c r="N253" s="63"/>
       <c r="O253" s="63"/>
-      <c r="P253" s="101"/>
-      <c r="Q253" s="102"/>
-      <c r="R253" s="103"/>
+      <c r="P253" s="88"/>
+      <c r="Q253" s="89"/>
+      <c r="R253" s="90"/>
     </row>
     <row r="254" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A254" s="64">
+      <c r="A254" s="106">
         <v>2</v>
       </c>
-      <c r="B254" s="65"/>
-      <c r="C254" s="74" t="s">
+      <c r="B254" s="107"/>
+      <c r="C254" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D254" s="75"/>
-      <c r="E254" s="75"/>
-      <c r="F254" s="75"/>
-      <c r="G254" s="75"/>
-      <c r="H254" s="75"/>
-      <c r="I254" s="75"/>
-      <c r="J254" s="76"/>
+      <c r="D254" s="65"/>
+      <c r="E254" s="65"/>
+      <c r="F254" s="65"/>
+      <c r="G254" s="65"/>
+      <c r="H254" s="65"/>
+      <c r="I254" s="65"/>
+      <c r="J254" s="66"/>
       <c r="K254" s="62">
         <v>3.24</v>
       </c>
@@ -3540,49 +3548,49 @@
       <c r="O254" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P254" s="101"/>
-      <c r="Q254" s="102"/>
-      <c r="R254" s="103"/>
+      <c r="P254" s="88"/>
+      <c r="Q254" s="89"/>
+      <c r="R254" s="90"/>
     </row>
     <row r="255" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A255" s="66"/>
-      <c r="B255" s="67"/>
-      <c r="C255" s="68" t="s">
+      <c r="A255" s="108"/>
+      <c r="B255" s="109"/>
+      <c r="C255" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D255" s="69"/>
-      <c r="E255" s="69" t="s">
+      <c r="D255" s="97"/>
+      <c r="E255" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="F255" s="69"/>
-      <c r="G255" s="69"/>
-      <c r="H255" s="69"/>
-      <c r="I255" s="69"/>
-      <c r="J255" s="70"/>
+      <c r="F255" s="97"/>
+      <c r="G255" s="97"/>
+      <c r="H255" s="97"/>
+      <c r="I255" s="97"/>
+      <c r="J255" s="98"/>
       <c r="K255" s="63"/>
       <c r="L255" s="63"/>
       <c r="M255" s="63"/>
       <c r="N255" s="63"/>
       <c r="O255" s="63"/>
-      <c r="P255" s="101"/>
-      <c r="Q255" s="102"/>
-      <c r="R255" s="103"/>
+      <c r="P255" s="88"/>
+      <c r="Q255" s="89"/>
+      <c r="R255" s="90"/>
     </row>
     <row r="256" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A256" s="64">
+      <c r="A256" s="106">
         <v>3</v>
       </c>
-      <c r="B256" s="65"/>
-      <c r="C256" s="74" t="s">
+      <c r="B256" s="107"/>
+      <c r="C256" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D256" s="75"/>
-      <c r="E256" s="75"/>
-      <c r="F256" s="75"/>
-      <c r="G256" s="75"/>
-      <c r="H256" s="75"/>
-      <c r="I256" s="75"/>
-      <c r="J256" s="76"/>
+      <c r="D256" s="65"/>
+      <c r="E256" s="65"/>
+      <c r="F256" s="65"/>
+      <c r="G256" s="65"/>
+      <c r="H256" s="65"/>
+      <c r="I256" s="65"/>
+      <c r="J256" s="66"/>
       <c r="K256" s="62">
         <v>3.28</v>
       </c>
@@ -3598,49 +3606,49 @@
       <c r="O256" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="P256" s="101"/>
-      <c r="Q256" s="102"/>
-      <c r="R256" s="103"/>
+      <c r="P256" s="88"/>
+      <c r="Q256" s="89"/>
+      <c r="R256" s="90"/>
     </row>
     <row r="257" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A257" s="66"/>
-      <c r="B257" s="67"/>
-      <c r="C257" s="68" t="s">
+      <c r="A257" s="108"/>
+      <c r="B257" s="109"/>
+      <c r="C257" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D257" s="69"/>
-      <c r="E257" s="69" t="s">
+      <c r="D257" s="97"/>
+      <c r="E257" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="F257" s="69"/>
-      <c r="G257" s="69"/>
-      <c r="H257" s="69"/>
-      <c r="I257" s="69"/>
-      <c r="J257" s="70"/>
+      <c r="F257" s="97"/>
+      <c r="G257" s="97"/>
+      <c r="H257" s="97"/>
+      <c r="I257" s="97"/>
+      <c r="J257" s="98"/>
       <c r="K257" s="63"/>
       <c r="L257" s="63"/>
       <c r="M257" s="63"/>
       <c r="N257" s="63"/>
       <c r="O257" s="63"/>
-      <c r="P257" s="101"/>
-      <c r="Q257" s="102"/>
-      <c r="R257" s="103"/>
+      <c r="P257" s="88"/>
+      <c r="Q257" s="89"/>
+      <c r="R257" s="90"/>
     </row>
     <row r="258" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A258" s="64">
+      <c r="A258" s="106">
         <v>4</v>
       </c>
-      <c r="B258" s="65"/>
-      <c r="C258" s="74" t="s">
+      <c r="B258" s="107"/>
+      <c r="C258" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D258" s="75"/>
-      <c r="E258" s="75"/>
-      <c r="F258" s="75"/>
-      <c r="G258" s="75"/>
-      <c r="H258" s="75"/>
-      <c r="I258" s="75"/>
-      <c r="J258" s="76"/>
+      <c r="D258" s="65"/>
+      <c r="E258" s="65"/>
+      <c r="F258" s="65"/>
+      <c r="G258" s="65"/>
+      <c r="H258" s="65"/>
+      <c r="I258" s="65"/>
+      <c r="J258" s="66"/>
       <c r="K258" s="62">
         <v>3.12</v>
       </c>
@@ -3656,49 +3664,49 @@
       <c r="O258" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="P258" s="101"/>
-      <c r="Q258" s="102"/>
-      <c r="R258" s="103"/>
+      <c r="P258" s="88"/>
+      <c r="Q258" s="89"/>
+      <c r="R258" s="90"/>
     </row>
     <row r="259" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A259" s="66"/>
-      <c r="B259" s="67"/>
-      <c r="C259" s="68" t="s">
+      <c r="A259" s="108"/>
+      <c r="B259" s="109"/>
+      <c r="C259" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D259" s="69"/>
-      <c r="E259" s="69" t="s">
+      <c r="D259" s="97"/>
+      <c r="E259" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="F259" s="69"/>
-      <c r="G259" s="69"/>
-      <c r="H259" s="69"/>
-      <c r="I259" s="69"/>
-      <c r="J259" s="70"/>
+      <c r="F259" s="97"/>
+      <c r="G259" s="97"/>
+      <c r="H259" s="97"/>
+      <c r="I259" s="97"/>
+      <c r="J259" s="98"/>
       <c r="K259" s="63"/>
       <c r="L259" s="63"/>
       <c r="M259" s="63"/>
       <c r="N259" s="63"/>
       <c r="O259" s="63"/>
-      <c r="P259" s="101"/>
-      <c r="Q259" s="102"/>
-      <c r="R259" s="103"/>
+      <c r="P259" s="88"/>
+      <c r="Q259" s="89"/>
+      <c r="R259" s="90"/>
     </row>
     <row r="260" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A260" s="64">
+      <c r="A260" s="106">
         <v>5</v>
       </c>
-      <c r="B260" s="65"/>
-      <c r="C260" s="74" t="s">
+      <c r="B260" s="107"/>
+      <c r="C260" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="D260" s="75"/>
-      <c r="E260" s="75"/>
-      <c r="F260" s="75"/>
-      <c r="G260" s="75"/>
-      <c r="H260" s="75"/>
-      <c r="I260" s="75"/>
-      <c r="J260" s="76"/>
+      <c r="D260" s="65"/>
+      <c r="E260" s="65"/>
+      <c r="F260" s="65"/>
+      <c r="G260" s="65"/>
+      <c r="H260" s="65"/>
+      <c r="I260" s="65"/>
+      <c r="J260" s="66"/>
       <c r="K260" s="62">
         <v>3.28</v>
       </c>
@@ -3714,49 +3722,49 @@
       <c r="O260" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P260" s="101"/>
-      <c r="Q260" s="102"/>
-      <c r="R260" s="103"/>
+      <c r="P260" s="88"/>
+      <c r="Q260" s="89"/>
+      <c r="R260" s="90"/>
     </row>
     <row r="261" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A261" s="66"/>
-      <c r="B261" s="67"/>
-      <c r="C261" s="68" t="s">
+      <c r="A261" s="108"/>
+      <c r="B261" s="109"/>
+      <c r="C261" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D261" s="69"/>
-      <c r="E261" s="69" t="s">
+      <c r="D261" s="97"/>
+      <c r="E261" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="F261" s="69"/>
-      <c r="G261" s="69"/>
-      <c r="H261" s="69"/>
-      <c r="I261" s="69"/>
-      <c r="J261" s="70"/>
+      <c r="F261" s="97"/>
+      <c r="G261" s="97"/>
+      <c r="H261" s="97"/>
+      <c r="I261" s="97"/>
+      <c r="J261" s="98"/>
       <c r="K261" s="63"/>
       <c r="L261" s="63"/>
       <c r="M261" s="63"/>
       <c r="N261" s="63"/>
       <c r="O261" s="63"/>
-      <c r="P261" s="101"/>
-      <c r="Q261" s="102"/>
-      <c r="R261" s="103"/>
+      <c r="P261" s="88"/>
+      <c r="Q261" s="89"/>
+      <c r="R261" s="90"/>
     </row>
     <row r="262" spans="1:18" ht="21" customHeight="1">
-      <c r="A262" s="64">
+      <c r="A262" s="106">
         <v>6</v>
       </c>
-      <c r="B262" s="65"/>
-      <c r="C262" s="74" t="s">
+      <c r="B262" s="107"/>
+      <c r="C262" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D262" s="75"/>
-      <c r="E262" s="75"/>
-      <c r="F262" s="75"/>
-      <c r="G262" s="75"/>
-      <c r="H262" s="75"/>
-      <c r="I262" s="75"/>
-      <c r="J262" s="76"/>
+      <c r="D262" s="65"/>
+      <c r="E262" s="65"/>
+      <c r="F262" s="65"/>
+      <c r="G262" s="65"/>
+      <c r="H262" s="65"/>
+      <c r="I262" s="65"/>
+      <c r="J262" s="66"/>
       <c r="K262" s="62">
         <v>3.2</v>
       </c>
@@ -3772,71 +3780,71 @@
       <c r="O262" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="P262" s="101"/>
-      <c r="Q262" s="102"/>
-      <c r="R262" s="103"/>
+      <c r="P262" s="88"/>
+      <c r="Q262" s="89"/>
+      <c r="R262" s="90"/>
     </row>
     <row r="263" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A263" s="66"/>
-      <c r="B263" s="67"/>
-      <c r="C263" s="68" t="s">
+      <c r="A263" s="108"/>
+      <c r="B263" s="109"/>
+      <c r="C263" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D263" s="69"/>
-      <c r="E263" s="69" t="s">
+      <c r="D263" s="97"/>
+      <c r="E263" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="F263" s="69"/>
-      <c r="G263" s="69"/>
-      <c r="H263" s="69"/>
-      <c r="I263" s="69"/>
-      <c r="J263" s="70"/>
+      <c r="F263" s="97"/>
+      <c r="G263" s="97"/>
+      <c r="H263" s="97"/>
+      <c r="I263" s="97"/>
+      <c r="J263" s="98"/>
       <c r="K263" s="63"/>
       <c r="L263" s="63"/>
       <c r="M263" s="63"/>
       <c r="N263" s="63"/>
       <c r="O263" s="63"/>
-      <c r="P263" s="101"/>
-      <c r="Q263" s="102"/>
-      <c r="R263" s="103"/>
+      <c r="P263" s="88"/>
+      <c r="Q263" s="89"/>
+      <c r="R263" s="90"/>
     </row>
     <row r="264" spans="1:18" ht="27" customHeight="1">
-      <c r="A264" s="107" t="s">
+      <c r="A264" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="B264" s="108"/>
-      <c r="C264" s="108"/>
-      <c r="D264" s="108"/>
-      <c r="E264" s="108"/>
-      <c r="F264" s="108"/>
-      <c r="G264" s="108"/>
-      <c r="H264" s="108"/>
-      <c r="I264" s="108"/>
-      <c r="J264" s="108"/>
-      <c r="K264" s="108"/>
-      <c r="L264" s="108"/>
-      <c r="M264" s="108"/>
-      <c r="N264" s="108"/>
-      <c r="O264" s="109"/>
-      <c r="P264" s="101"/>
-      <c r="Q264" s="102"/>
-      <c r="R264" s="103"/>
+      <c r="B264" s="95"/>
+      <c r="C264" s="95"/>
+      <c r="D264" s="95"/>
+      <c r="E264" s="95"/>
+      <c r="F264" s="95"/>
+      <c r="G264" s="95"/>
+      <c r="H264" s="95"/>
+      <c r="I264" s="95"/>
+      <c r="J264" s="95"/>
+      <c r="K264" s="95"/>
+      <c r="L264" s="95"/>
+      <c r="M264" s="95"/>
+      <c r="N264" s="95"/>
+      <c r="O264" s="96"/>
+      <c r="P264" s="88"/>
+      <c r="Q264" s="89"/>
+      <c r="R264" s="90"/>
     </row>
     <row r="265" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A265" s="64">
+      <c r="A265" s="106">
         <v>1</v>
       </c>
-      <c r="B265" s="65"/>
-      <c r="C265" s="74" t="s">
+      <c r="B265" s="107"/>
+      <c r="C265" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D265" s="75"/>
-      <c r="E265" s="75"/>
-      <c r="F265" s="75"/>
-      <c r="G265" s="75"/>
-      <c r="H265" s="75"/>
-      <c r="I265" s="75"/>
-      <c r="J265" s="76"/>
+      <c r="D265" s="65"/>
+      <c r="E265" s="65"/>
+      <c r="F265" s="65"/>
+      <c r="G265" s="65"/>
+      <c r="H265" s="65"/>
+      <c r="I265" s="65"/>
+      <c r="J265" s="66"/>
       <c r="K265" s="62">
         <v>3.28</v>
       </c>
@@ -3852,49 +3860,49 @@
       <c r="O265" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="P265" s="101"/>
-      <c r="Q265" s="102"/>
-      <c r="R265" s="103"/>
+      <c r="P265" s="88"/>
+      <c r="Q265" s="89"/>
+      <c r="R265" s="90"/>
     </row>
     <row r="266" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A266" s="66"/>
-      <c r="B266" s="67"/>
-      <c r="C266" s="68" t="s">
+      <c r="A266" s="108"/>
+      <c r="B266" s="109"/>
+      <c r="C266" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D266" s="69"/>
-      <c r="E266" s="69" t="s">
+      <c r="D266" s="97"/>
+      <c r="E266" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="F266" s="69"/>
-      <c r="G266" s="69"/>
-      <c r="H266" s="69"/>
-      <c r="I266" s="69"/>
-      <c r="J266" s="70"/>
+      <c r="F266" s="97"/>
+      <c r="G266" s="97"/>
+      <c r="H266" s="97"/>
+      <c r="I266" s="97"/>
+      <c r="J266" s="98"/>
       <c r="K266" s="63"/>
       <c r="L266" s="63"/>
       <c r="M266" s="63"/>
       <c r="N266" s="63"/>
       <c r="O266" s="63"/>
-      <c r="P266" s="101"/>
-      <c r="Q266" s="102"/>
-      <c r="R266" s="103"/>
+      <c r="P266" s="88"/>
+      <c r="Q266" s="89"/>
+      <c r="R266" s="90"/>
     </row>
     <row r="267" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A267" s="64">
+      <c r="A267" s="106">
         <v>2</v>
       </c>
-      <c r="B267" s="65"/>
-      <c r="C267" s="74" t="s">
+      <c r="B267" s="107"/>
+      <c r="C267" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D267" s="75"/>
-      <c r="E267" s="75"/>
-      <c r="F267" s="75"/>
-      <c r="G267" s="75"/>
-      <c r="H267" s="75"/>
-      <c r="I267" s="75"/>
-      <c r="J267" s="76"/>
+      <c r="D267" s="65"/>
+      <c r="E267" s="65"/>
+      <c r="F267" s="65"/>
+      <c r="G267" s="65"/>
+      <c r="H267" s="65"/>
+      <c r="I267" s="65"/>
+      <c r="J267" s="66"/>
       <c r="K267" s="62">
         <v>3.24</v>
       </c>
@@ -3910,49 +3918,49 @@
       <c r="O267" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P267" s="101"/>
-      <c r="Q267" s="102"/>
-      <c r="R267" s="103"/>
+      <c r="P267" s="88"/>
+      <c r="Q267" s="89"/>
+      <c r="R267" s="90"/>
     </row>
     <row r="268" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A268" s="66"/>
-      <c r="B268" s="67"/>
-      <c r="C268" s="68" t="s">
+      <c r="A268" s="108"/>
+      <c r="B268" s="109"/>
+      <c r="C268" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D268" s="69"/>
-      <c r="E268" s="69" t="s">
+      <c r="D268" s="97"/>
+      <c r="E268" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="F268" s="69"/>
-      <c r="G268" s="69"/>
-      <c r="H268" s="69"/>
-      <c r="I268" s="69"/>
-      <c r="J268" s="70"/>
+      <c r="F268" s="97"/>
+      <c r="G268" s="97"/>
+      <c r="H268" s="97"/>
+      <c r="I268" s="97"/>
+      <c r="J268" s="98"/>
       <c r="K268" s="63"/>
       <c r="L268" s="63"/>
       <c r="M268" s="63"/>
       <c r="N268" s="63"/>
       <c r="O268" s="63"/>
-      <c r="P268" s="101"/>
-      <c r="Q268" s="102"/>
-      <c r="R268" s="103"/>
+      <c r="P268" s="88"/>
+      <c r="Q268" s="89"/>
+      <c r="R268" s="90"/>
     </row>
     <row r="269" spans="1:18" ht="15.75">
-      <c r="A269" s="64">
+      <c r="A269" s="106">
         <v>3</v>
       </c>
-      <c r="B269" s="65"/>
-      <c r="C269" s="74" t="s">
+      <c r="B269" s="107"/>
+      <c r="C269" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D269" s="75"/>
-      <c r="E269" s="75"/>
-      <c r="F269" s="75"/>
-      <c r="G269" s="75"/>
-      <c r="H269" s="75"/>
-      <c r="I269" s="75"/>
-      <c r="J269" s="76"/>
+      <c r="D269" s="65"/>
+      <c r="E269" s="65"/>
+      <c r="F269" s="65"/>
+      <c r="G269" s="65"/>
+      <c r="H269" s="65"/>
+      <c r="I269" s="65"/>
+      <c r="J269" s="66"/>
       <c r="K269" s="62">
         <v>3.12</v>
       </c>
@@ -3968,49 +3976,49 @@
       <c r="O269" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P269" s="101"/>
-      <c r="Q269" s="102"/>
-      <c r="R269" s="103"/>
+      <c r="P269" s="88"/>
+      <c r="Q269" s="89"/>
+      <c r="R269" s="90"/>
     </row>
     <row r="270" spans="1:18" ht="15.75">
-      <c r="A270" s="66"/>
-      <c r="B270" s="67"/>
-      <c r="C270" s="68" t="s">
+      <c r="A270" s="108"/>
+      <c r="B270" s="109"/>
+      <c r="C270" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D270" s="69"/>
-      <c r="E270" s="69" t="s">
+      <c r="D270" s="97"/>
+      <c r="E270" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="F270" s="69"/>
-      <c r="G270" s="69"/>
-      <c r="H270" s="69"/>
-      <c r="I270" s="69"/>
-      <c r="J270" s="70"/>
+      <c r="F270" s="97"/>
+      <c r="G270" s="97"/>
+      <c r="H270" s="97"/>
+      <c r="I270" s="97"/>
+      <c r="J270" s="98"/>
       <c r="K270" s="63"/>
       <c r="L270" s="63"/>
       <c r="M270" s="63"/>
       <c r="N270" s="63"/>
       <c r="O270" s="63"/>
-      <c r="P270" s="101"/>
-      <c r="Q270" s="102"/>
-      <c r="R270" s="103"/>
+      <c r="P270" s="88"/>
+      <c r="Q270" s="89"/>
+      <c r="R270" s="90"/>
     </row>
     <row r="271" spans="1:18" ht="15.75">
-      <c r="A271" s="64">
+      <c r="A271" s="106">
         <v>4</v>
       </c>
-      <c r="B271" s="65"/>
-      <c r="C271" s="74" t="s">
+      <c r="B271" s="107"/>
+      <c r="C271" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="D271" s="75"/>
-      <c r="E271" s="75"/>
-      <c r="F271" s="75"/>
-      <c r="G271" s="75"/>
-      <c r="H271" s="75"/>
-      <c r="I271" s="75"/>
-      <c r="J271" s="76"/>
+      <c r="D271" s="65"/>
+      <c r="E271" s="65"/>
+      <c r="F271" s="65"/>
+      <c r="G271" s="65"/>
+      <c r="H271" s="65"/>
+      <c r="I271" s="65"/>
+      <c r="J271" s="66"/>
       <c r="K271" s="62">
         <v>3.2</v>
       </c>
@@ -4026,95 +4034,95 @@
       <c r="O271" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="P271" s="101"/>
-      <c r="Q271" s="102"/>
-      <c r="R271" s="103"/>
+      <c r="P271" s="88"/>
+      <c r="Q271" s="89"/>
+      <c r="R271" s="90"/>
     </row>
     <row r="272" spans="1:18" ht="15.75">
-      <c r="A272" s="66"/>
-      <c r="B272" s="67"/>
-      <c r="C272" s="68" t="s">
+      <c r="A272" s="108"/>
+      <c r="B272" s="109"/>
+      <c r="C272" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D272" s="69"/>
-      <c r="E272" s="69" t="s">
+      <c r="D272" s="97"/>
+      <c r="E272" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="F272" s="69"/>
-      <c r="G272" s="69"/>
-      <c r="H272" s="69"/>
-      <c r="I272" s="69"/>
-      <c r="J272" s="70"/>
+      <c r="F272" s="97"/>
+      <c r="G272" s="97"/>
+      <c r="H272" s="97"/>
+      <c r="I272" s="97"/>
+      <c r="J272" s="98"/>
       <c r="K272" s="63"/>
       <c r="L272" s="63"/>
       <c r="M272" s="63"/>
       <c r="N272" s="63"/>
       <c r="O272" s="63"/>
-      <c r="P272" s="101"/>
-      <c r="Q272" s="102"/>
-      <c r="R272" s="103"/>
+      <c r="P272" s="88"/>
+      <c r="Q272" s="89"/>
+      <c r="R272" s="90"/>
     </row>
     <row r="273" spans="1:18" ht="33" customHeight="1">
-      <c r="A273" s="107" t="s">
+      <c r="A273" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="B273" s="108"/>
-      <c r="C273" s="108"/>
-      <c r="D273" s="108"/>
-      <c r="E273" s="108"/>
-      <c r="F273" s="108"/>
-      <c r="G273" s="108"/>
-      <c r="H273" s="108"/>
-      <c r="I273" s="108"/>
-      <c r="J273" s="108"/>
-      <c r="K273" s="108"/>
-      <c r="L273" s="108"/>
-      <c r="M273" s="108"/>
-      <c r="N273" s="108"/>
-      <c r="O273" s="109"/>
-      <c r="P273" s="101"/>
-      <c r="Q273" s="102"/>
-      <c r="R273" s="103"/>
+      <c r="B273" s="95"/>
+      <c r="C273" s="95"/>
+      <c r="D273" s="95"/>
+      <c r="E273" s="95"/>
+      <c r="F273" s="95"/>
+      <c r="G273" s="95"/>
+      <c r="H273" s="95"/>
+      <c r="I273" s="95"/>
+      <c r="J273" s="95"/>
+      <c r="K273" s="95"/>
+      <c r="L273" s="95"/>
+      <c r="M273" s="95"/>
+      <c r="N273" s="95"/>
+      <c r="O273" s="96"/>
+      <c r="P273" s="88"/>
+      <c r="Q273" s="89"/>
+      <c r="R273" s="90"/>
     </row>
     <row r="274" spans="1:18" ht="15.75">
       <c r="A274" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B274" s="7"/>
-      <c r="C274" s="71" t="s">
+      <c r="C274" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="D274" s="72"/>
-      <c r="E274" s="72"/>
-      <c r="F274" s="72"/>
-      <c r="G274" s="72"/>
-      <c r="H274" s="72"/>
-      <c r="I274" s="72"/>
-      <c r="J274" s="72"/>
-      <c r="K274" s="72"/>
-      <c r="L274" s="72"/>
-      <c r="M274" s="72"/>
-      <c r="N274" s="72"/>
-      <c r="O274" s="73"/>
-      <c r="P274" s="101"/>
-      <c r="Q274" s="102"/>
-      <c r="R274" s="103"/>
+      <c r="D274" s="101"/>
+      <c r="E274" s="101"/>
+      <c r="F274" s="101"/>
+      <c r="G274" s="101"/>
+      <c r="H274" s="101"/>
+      <c r="I274" s="101"/>
+      <c r="J274" s="101"/>
+      <c r="K274" s="101"/>
+      <c r="L274" s="101"/>
+      <c r="M274" s="101"/>
+      <c r="N274" s="101"/>
+      <c r="O274" s="102"/>
+      <c r="P274" s="88"/>
+      <c r="Q274" s="89"/>
+      <c r="R274" s="90"/>
     </row>
     <row r="275" spans="1:18" ht="15.75">
-      <c r="A275" s="64">
+      <c r="A275" s="106">
         <v>1</v>
       </c>
-      <c r="B275" s="65"/>
-      <c r="C275" s="74" t="s">
+      <c r="B275" s="107"/>
+      <c r="C275" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="D275" s="75"/>
-      <c r="E275" s="75"/>
-      <c r="F275" s="75"/>
-      <c r="G275" s="75"/>
-      <c r="H275" s="75"/>
-      <c r="I275" s="75"/>
-      <c r="J275" s="76"/>
+      <c r="D275" s="65"/>
+      <c r="E275" s="65"/>
+      <c r="F275" s="65"/>
+      <c r="G275" s="65"/>
+      <c r="H275" s="65"/>
+      <c r="I275" s="65"/>
+      <c r="J275" s="66"/>
       <c r="K275" s="62">
         <v>3.2</v>
       </c>
@@ -4130,49 +4138,49 @@
       <c r="O275" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P275" s="101"/>
-      <c r="Q275" s="102"/>
-      <c r="R275" s="103"/>
+      <c r="P275" s="88"/>
+      <c r="Q275" s="89"/>
+      <c r="R275" s="90"/>
     </row>
     <row r="276" spans="1:18" ht="15.75">
-      <c r="A276" s="66"/>
-      <c r="B276" s="67"/>
-      <c r="C276" s="68" t="s">
+      <c r="A276" s="108"/>
+      <c r="B276" s="109"/>
+      <c r="C276" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D276" s="69"/>
-      <c r="E276" s="69" t="s">
+      <c r="D276" s="97"/>
+      <c r="E276" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="F276" s="69"/>
-      <c r="G276" s="69"/>
-      <c r="H276" s="69"/>
-      <c r="I276" s="69"/>
-      <c r="J276" s="70"/>
+      <c r="F276" s="97"/>
+      <c r="G276" s="97"/>
+      <c r="H276" s="97"/>
+      <c r="I276" s="97"/>
+      <c r="J276" s="98"/>
       <c r="K276" s="63"/>
       <c r="L276" s="63"/>
       <c r="M276" s="63"/>
       <c r="N276" s="63"/>
       <c r="O276" s="63"/>
-      <c r="P276" s="101"/>
-      <c r="Q276" s="102"/>
-      <c r="R276" s="103"/>
+      <c r="P276" s="88"/>
+      <c r="Q276" s="89"/>
+      <c r="R276" s="90"/>
     </row>
     <row r="277" spans="1:18" ht="15.75">
-      <c r="A277" s="64">
+      <c r="A277" s="106">
         <v>2</v>
       </c>
-      <c r="B277" s="65"/>
-      <c r="C277" s="74" t="s">
+      <c r="B277" s="107"/>
+      <c r="C277" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D277" s="75"/>
-      <c r="E277" s="75"/>
-      <c r="F277" s="75"/>
-      <c r="G277" s="75"/>
-      <c r="H277" s="75"/>
-      <c r="I277" s="75"/>
-      <c r="J277" s="76"/>
+      <c r="D277" s="65"/>
+      <c r="E277" s="65"/>
+      <c r="F277" s="65"/>
+      <c r="G277" s="65"/>
+      <c r="H277" s="65"/>
+      <c r="I277" s="65"/>
+      <c r="J277" s="66"/>
       <c r="K277" s="62">
         <v>3.16</v>
       </c>
@@ -4188,49 +4196,49 @@
       <c r="O277" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P277" s="101"/>
-      <c r="Q277" s="102"/>
-      <c r="R277" s="103"/>
+      <c r="P277" s="88"/>
+      <c r="Q277" s="89"/>
+      <c r="R277" s="90"/>
     </row>
     <row r="278" spans="1:18" ht="15.75">
-      <c r="A278" s="66"/>
-      <c r="B278" s="67"/>
-      <c r="C278" s="68" t="s">
+      <c r="A278" s="108"/>
+      <c r="B278" s="109"/>
+      <c r="C278" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D278" s="69"/>
-      <c r="E278" s="69" t="s">
+      <c r="D278" s="97"/>
+      <c r="E278" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="F278" s="69"/>
-      <c r="G278" s="69"/>
-      <c r="H278" s="69"/>
-      <c r="I278" s="69"/>
-      <c r="J278" s="70"/>
+      <c r="F278" s="97"/>
+      <c r="G278" s="97"/>
+      <c r="H278" s="97"/>
+      <c r="I278" s="97"/>
+      <c r="J278" s="98"/>
       <c r="K278" s="63"/>
       <c r="L278" s="63"/>
       <c r="M278" s="63"/>
       <c r="N278" s="63"/>
       <c r="O278" s="63"/>
-      <c r="P278" s="101"/>
-      <c r="Q278" s="102"/>
-      <c r="R278" s="103"/>
+      <c r="P278" s="88"/>
+      <c r="Q278" s="89"/>
+      <c r="R278" s="90"/>
     </row>
     <row r="279" spans="1:18" ht="15.75">
-      <c r="A279" s="64">
+      <c r="A279" s="106">
         <v>3</v>
       </c>
-      <c r="B279" s="65"/>
-      <c r="C279" s="74" t="s">
+      <c r="B279" s="107"/>
+      <c r="C279" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="D279" s="75"/>
-      <c r="E279" s="75"/>
-      <c r="F279" s="75"/>
-      <c r="G279" s="75"/>
-      <c r="H279" s="75"/>
-      <c r="I279" s="75"/>
-      <c r="J279" s="76"/>
+      <c r="D279" s="65"/>
+      <c r="E279" s="65"/>
+      <c r="F279" s="65"/>
+      <c r="G279" s="65"/>
+      <c r="H279" s="65"/>
+      <c r="I279" s="65"/>
+      <c r="J279" s="66"/>
       <c r="K279" s="62">
         <v>3.2</v>
       </c>
@@ -4246,49 +4254,49 @@
       <c r="O279" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P279" s="101"/>
-      <c r="Q279" s="102"/>
-      <c r="R279" s="103"/>
+      <c r="P279" s="88"/>
+      <c r="Q279" s="89"/>
+      <c r="R279" s="90"/>
     </row>
     <row r="280" spans="1:18" ht="15.75">
-      <c r="A280" s="66"/>
-      <c r="B280" s="67"/>
-      <c r="C280" s="68" t="s">
+      <c r="A280" s="108"/>
+      <c r="B280" s="109"/>
+      <c r="C280" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D280" s="69"/>
-      <c r="E280" s="69" t="s">
+      <c r="D280" s="97"/>
+      <c r="E280" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="F280" s="69"/>
-      <c r="G280" s="69"/>
-      <c r="H280" s="69"/>
-      <c r="I280" s="69"/>
-      <c r="J280" s="70"/>
+      <c r="F280" s="97"/>
+      <c r="G280" s="97"/>
+      <c r="H280" s="97"/>
+      <c r="I280" s="97"/>
+      <c r="J280" s="98"/>
       <c r="K280" s="63"/>
       <c r="L280" s="63"/>
       <c r="M280" s="63"/>
       <c r="N280" s="63"/>
       <c r="O280" s="63"/>
-      <c r="P280" s="101"/>
-      <c r="Q280" s="102"/>
-      <c r="R280" s="103"/>
+      <c r="P280" s="88"/>
+      <c r="Q280" s="89"/>
+      <c r="R280" s="90"/>
     </row>
     <row r="281" spans="1:18" ht="15.75">
-      <c r="A281" s="64">
+      <c r="A281" s="106">
         <v>4</v>
       </c>
-      <c r="B281" s="65"/>
-      <c r="C281" s="74" t="s">
+      <c r="B281" s="107"/>
+      <c r="C281" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="D281" s="75"/>
-      <c r="E281" s="75"/>
-      <c r="F281" s="75"/>
-      <c r="G281" s="75"/>
-      <c r="H281" s="75"/>
-      <c r="I281" s="75"/>
-      <c r="J281" s="76"/>
+      <c r="D281" s="65"/>
+      <c r="E281" s="65"/>
+      <c r="F281" s="65"/>
+      <c r="G281" s="65"/>
+      <c r="H281" s="65"/>
+      <c r="I281" s="65"/>
+      <c r="J281" s="66"/>
       <c r="K281" s="62">
         <v>3.6</v>
       </c>
@@ -4304,73 +4312,73 @@
       <c r="O281" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P281" s="101"/>
-      <c r="Q281" s="102"/>
-      <c r="R281" s="103"/>
+      <c r="P281" s="88"/>
+      <c r="Q281" s="89"/>
+      <c r="R281" s="90"/>
     </row>
     <row r="282" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A282" s="66"/>
-      <c r="B282" s="67"/>
-      <c r="C282" s="68" t="s">
+      <c r="A282" s="108"/>
+      <c r="B282" s="109"/>
+      <c r="C282" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D282" s="69"/>
-      <c r="E282" s="69" t="s">
+      <c r="D282" s="97"/>
+      <c r="E282" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="F282" s="69"/>
-      <c r="G282" s="69"/>
-      <c r="H282" s="69"/>
-      <c r="I282" s="69"/>
-      <c r="J282" s="70"/>
+      <c r="F282" s="97"/>
+      <c r="G282" s="97"/>
+      <c r="H282" s="97"/>
+      <c r="I282" s="97"/>
+      <c r="J282" s="98"/>
       <c r="K282" s="63"/>
       <c r="L282" s="63"/>
       <c r="M282" s="63"/>
       <c r="N282" s="63"/>
       <c r="O282" s="63"/>
-      <c r="P282" s="101"/>
-      <c r="Q282" s="102"/>
-      <c r="R282" s="103"/>
+      <c r="P282" s="88"/>
+      <c r="Q282" s="89"/>
+      <c r="R282" s="90"/>
     </row>
     <row r="283" spans="1:18" ht="31.5" customHeight="1">
       <c r="A283" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B283" s="7"/>
-      <c r="C283" s="77" t="s">
+      <c r="C283" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="D283" s="78"/>
-      <c r="E283" s="78"/>
-      <c r="F283" s="78"/>
-      <c r="G283" s="78"/>
-      <c r="H283" s="78"/>
-      <c r="I283" s="78"/>
-      <c r="J283" s="78"/>
-      <c r="K283" s="78"/>
-      <c r="L283" s="78"/>
-      <c r="M283" s="78"/>
-      <c r="N283" s="78"/>
-      <c r="O283" s="79"/>
-      <c r="P283" s="101"/>
-      <c r="Q283" s="102"/>
-      <c r="R283" s="103"/>
+      <c r="D283" s="104"/>
+      <c r="E283" s="104"/>
+      <c r="F283" s="104"/>
+      <c r="G283" s="104"/>
+      <c r="H283" s="104"/>
+      <c r="I283" s="104"/>
+      <c r="J283" s="104"/>
+      <c r="K283" s="104"/>
+      <c r="L283" s="104"/>
+      <c r="M283" s="104"/>
+      <c r="N283" s="104"/>
+      <c r="O283" s="105"/>
+      <c r="P283" s="88"/>
+      <c r="Q283" s="89"/>
+      <c r="R283" s="90"/>
     </row>
     <row r="284" spans="1:18" ht="15.75">
-      <c r="A284" s="64">
+      <c r="A284" s="106">
         <v>1</v>
       </c>
-      <c r="B284" s="65"/>
-      <c r="C284" s="74" t="s">
+      <c r="B284" s="107"/>
+      <c r="C284" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D284" s="75"/>
-      <c r="E284" s="75"/>
-      <c r="F284" s="75"/>
-      <c r="G284" s="75"/>
-      <c r="H284" s="75"/>
-      <c r="I284" s="75"/>
-      <c r="J284" s="76"/>
+      <c r="D284" s="65"/>
+      <c r="E284" s="65"/>
+      <c r="F284" s="65"/>
+      <c r="G284" s="65"/>
+      <c r="H284" s="65"/>
+      <c r="I284" s="65"/>
+      <c r="J284" s="66"/>
       <c r="K284" s="62">
         <v>3.32</v>
       </c>
@@ -4386,49 +4394,49 @@
       <c r="O284" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P284" s="101"/>
-      <c r="Q284" s="102"/>
-      <c r="R284" s="103"/>
+      <c r="P284" s="88"/>
+      <c r="Q284" s="89"/>
+      <c r="R284" s="90"/>
     </row>
     <row r="285" spans="1:18" ht="15.75">
-      <c r="A285" s="66"/>
-      <c r="B285" s="67"/>
-      <c r="C285" s="68" t="s">
+      <c r="A285" s="108"/>
+      <c r="B285" s="109"/>
+      <c r="C285" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D285" s="69"/>
-      <c r="E285" s="69" t="s">
+      <c r="D285" s="97"/>
+      <c r="E285" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="F285" s="69"/>
-      <c r="G285" s="69"/>
-      <c r="H285" s="69"/>
-      <c r="I285" s="69"/>
-      <c r="J285" s="70"/>
+      <c r="F285" s="97"/>
+      <c r="G285" s="97"/>
+      <c r="H285" s="97"/>
+      <c r="I285" s="97"/>
+      <c r="J285" s="98"/>
       <c r="K285" s="63"/>
       <c r="L285" s="63"/>
       <c r="M285" s="63"/>
       <c r="N285" s="63"/>
       <c r="O285" s="63"/>
-      <c r="P285" s="101"/>
-      <c r="Q285" s="102"/>
-      <c r="R285" s="103"/>
+      <c r="P285" s="88"/>
+      <c r="Q285" s="89"/>
+      <c r="R285" s="90"/>
     </row>
     <row r="286" spans="1:18" ht="15.75">
-      <c r="A286" s="64">
+      <c r="A286" s="106">
         <v>2</v>
       </c>
-      <c r="B286" s="65"/>
-      <c r="C286" s="74" t="s">
+      <c r="B286" s="107"/>
+      <c r="C286" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="D286" s="75"/>
-      <c r="E286" s="75"/>
-      <c r="F286" s="75"/>
-      <c r="G286" s="75"/>
-      <c r="H286" s="75"/>
-      <c r="I286" s="75"/>
-      <c r="J286" s="76"/>
+      <c r="D286" s="65"/>
+      <c r="E286" s="65"/>
+      <c r="F286" s="65"/>
+      <c r="G286" s="65"/>
+      <c r="H286" s="65"/>
+      <c r="I286" s="65"/>
+      <c r="J286" s="66"/>
       <c r="K286" s="62">
         <v>3.16</v>
       </c>
@@ -4444,33 +4452,33 @@
       <c r="O286" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P286" s="101"/>
-      <c r="Q286" s="102"/>
-      <c r="R286" s="103"/>
+      <c r="P286" s="88"/>
+      <c r="Q286" s="89"/>
+      <c r="R286" s="90"/>
     </row>
     <row r="287" spans="1:18" ht="15.75">
-      <c r="A287" s="66"/>
-      <c r="B287" s="67"/>
-      <c r="C287" s="68" t="s">
+      <c r="A287" s="108"/>
+      <c r="B287" s="109"/>
+      <c r="C287" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D287" s="69"/>
-      <c r="E287" s="69" t="s">
+      <c r="D287" s="97"/>
+      <c r="E287" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="F287" s="69"/>
-      <c r="G287" s="69"/>
-      <c r="H287" s="69"/>
-      <c r="I287" s="69"/>
-      <c r="J287" s="70"/>
+      <c r="F287" s="97"/>
+      <c r="G287" s="97"/>
+      <c r="H287" s="97"/>
+      <c r="I287" s="97"/>
+      <c r="J287" s="98"/>
       <c r="K287" s="63"/>
       <c r="L287" s="63"/>
       <c r="M287" s="63"/>
       <c r="N287" s="63"/>
       <c r="O287" s="63"/>
-      <c r="P287" s="104"/>
-      <c r="Q287" s="105"/>
-      <c r="R287" s="106"/>
+      <c r="P287" s="91"/>
+      <c r="Q287" s="92"/>
+      <c r="R287" s="93"/>
     </row>
     <row r="288" spans="1:18" ht="15.75">
       <c r="A288" s="11"/>
@@ -4703,7 +4711,145 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="162">
+    <mergeCell ref="I219:R220"/>
+    <mergeCell ref="L284:L285"/>
+    <mergeCell ref="M284:M285"/>
+    <mergeCell ref="N284:N285"/>
+    <mergeCell ref="O284:O285"/>
+    <mergeCell ref="K286:K287"/>
+    <mergeCell ref="L286:L287"/>
+    <mergeCell ref="M286:M287"/>
+    <mergeCell ref="N286:N287"/>
+    <mergeCell ref="O286:O287"/>
+    <mergeCell ref="K277:K278"/>
+    <mergeCell ref="L277:L278"/>
+    <mergeCell ref="M277:M278"/>
+    <mergeCell ref="N277:N278"/>
+    <mergeCell ref="O277:O278"/>
+    <mergeCell ref="K275:K276"/>
+    <mergeCell ref="L275:L276"/>
+    <mergeCell ref="M275:M276"/>
+    <mergeCell ref="N275:N276"/>
+    <mergeCell ref="O275:O276"/>
+    <mergeCell ref="O260:O261"/>
+    <mergeCell ref="L262:L263"/>
+    <mergeCell ref="M262:M263"/>
+    <mergeCell ref="N262:N263"/>
+    <mergeCell ref="O262:O263"/>
+    <mergeCell ref="O256:O257"/>
+    <mergeCell ref="L258:L259"/>
+    <mergeCell ref="M258:M259"/>
+    <mergeCell ref="N258:N259"/>
+    <mergeCell ref="O258:O259"/>
+    <mergeCell ref="O252:O253"/>
+    <mergeCell ref="L254:L255"/>
+    <mergeCell ref="M254:M255"/>
+    <mergeCell ref="N254:N255"/>
+    <mergeCell ref="O254:O255"/>
+    <mergeCell ref="A286:B287"/>
+    <mergeCell ref="K252:K253"/>
+    <mergeCell ref="L252:L253"/>
+    <mergeCell ref="M252:M253"/>
+    <mergeCell ref="N252:N253"/>
+    <mergeCell ref="L256:L257"/>
+    <mergeCell ref="M256:M257"/>
+    <mergeCell ref="N256:N257"/>
+    <mergeCell ref="L260:L261"/>
+    <mergeCell ref="M260:M261"/>
+    <mergeCell ref="N260:N261"/>
+    <mergeCell ref="K254:K255"/>
+    <mergeCell ref="K256:K257"/>
+    <mergeCell ref="K258:K259"/>
+    <mergeCell ref="K260:K261"/>
+    <mergeCell ref="K262:K263"/>
+    <mergeCell ref="A275:B276"/>
+    <mergeCell ref="A277:B278"/>
+    <mergeCell ref="A279:B280"/>
+    <mergeCell ref="A281:B282"/>
+    <mergeCell ref="A284:B285"/>
+    <mergeCell ref="A262:B263"/>
+    <mergeCell ref="A265:B266"/>
+    <mergeCell ref="A267:B268"/>
+    <mergeCell ref="A269:B270"/>
+    <mergeCell ref="A271:B272"/>
+    <mergeCell ref="A252:B253"/>
+    <mergeCell ref="A254:B255"/>
+    <mergeCell ref="A256:B257"/>
+    <mergeCell ref="A258:B259"/>
+    <mergeCell ref="A260:B261"/>
+    <mergeCell ref="C278:D278"/>
+    <mergeCell ref="C280:D280"/>
+    <mergeCell ref="C282:D282"/>
+    <mergeCell ref="C285:D285"/>
+    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="E278:J278"/>
+    <mergeCell ref="E280:J280"/>
+    <mergeCell ref="E282:J282"/>
+    <mergeCell ref="E285:J285"/>
+    <mergeCell ref="E287:J287"/>
+    <mergeCell ref="C283:O283"/>
+    <mergeCell ref="C286:J286"/>
+    <mergeCell ref="C284:J284"/>
+    <mergeCell ref="C281:J281"/>
+    <mergeCell ref="C279:J279"/>
+    <mergeCell ref="K279:K280"/>
+    <mergeCell ref="L279:L280"/>
+    <mergeCell ref="M279:M280"/>
+    <mergeCell ref="N279:N280"/>
+    <mergeCell ref="O279:O280"/>
+    <mergeCell ref="K281:K282"/>
+    <mergeCell ref="L281:L282"/>
+    <mergeCell ref="M281:M282"/>
+    <mergeCell ref="N281:N282"/>
+    <mergeCell ref="C270:D270"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="C276:D276"/>
+    <mergeCell ref="K265:K266"/>
+    <mergeCell ref="L265:L266"/>
+    <mergeCell ref="M265:M266"/>
+    <mergeCell ref="N265:N266"/>
+    <mergeCell ref="O265:O266"/>
+    <mergeCell ref="C265:J265"/>
+    <mergeCell ref="L271:L272"/>
+    <mergeCell ref="M271:M272"/>
+    <mergeCell ref="N271:N272"/>
+    <mergeCell ref="O271:O272"/>
+    <mergeCell ref="K267:K268"/>
+    <mergeCell ref="K269:K270"/>
+    <mergeCell ref="K271:K272"/>
+    <mergeCell ref="L267:L268"/>
+    <mergeCell ref="M267:M268"/>
+    <mergeCell ref="N267:N268"/>
+    <mergeCell ref="O267:O268"/>
+    <mergeCell ref="L269:L270"/>
+    <mergeCell ref="M269:M270"/>
+    <mergeCell ref="N269:N270"/>
+    <mergeCell ref="O269:O270"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="C277:J277"/>
+    <mergeCell ref="C275:J275"/>
+    <mergeCell ref="C271:J271"/>
+    <mergeCell ref="C269:J269"/>
+    <mergeCell ref="C267:J267"/>
+    <mergeCell ref="C254:J254"/>
+    <mergeCell ref="E253:J253"/>
+    <mergeCell ref="E255:J255"/>
+    <mergeCell ref="E257:J257"/>
+    <mergeCell ref="E259:J259"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="E266:J266"/>
+    <mergeCell ref="E268:J268"/>
+    <mergeCell ref="E270:J270"/>
+    <mergeCell ref="E272:J272"/>
+    <mergeCell ref="E276:J276"/>
+    <mergeCell ref="C274:O274"/>
+    <mergeCell ref="C266:D266"/>
+    <mergeCell ref="C268:D268"/>
     <mergeCell ref="O281:O282"/>
     <mergeCell ref="K284:K285"/>
     <mergeCell ref="C252:J252"/>
@@ -4728,143 +4874,6 @@
     <mergeCell ref="C256:J256"/>
     <mergeCell ref="E261:J261"/>
     <mergeCell ref="E263:J263"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="C277:J277"/>
-    <mergeCell ref="C275:J275"/>
-    <mergeCell ref="C271:J271"/>
-    <mergeCell ref="C269:J269"/>
-    <mergeCell ref="C267:J267"/>
-    <mergeCell ref="C254:J254"/>
-    <mergeCell ref="E253:J253"/>
-    <mergeCell ref="E255:J255"/>
-    <mergeCell ref="E257:J257"/>
-    <mergeCell ref="E259:J259"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="E266:J266"/>
-    <mergeCell ref="E268:J268"/>
-    <mergeCell ref="E270:J270"/>
-    <mergeCell ref="E272:J272"/>
-    <mergeCell ref="E276:J276"/>
-    <mergeCell ref="C274:O274"/>
-    <mergeCell ref="C266:D266"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="C270:D270"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="C276:D276"/>
-    <mergeCell ref="K265:K266"/>
-    <mergeCell ref="L265:L266"/>
-    <mergeCell ref="M265:M266"/>
-    <mergeCell ref="N265:N266"/>
-    <mergeCell ref="O265:O266"/>
-    <mergeCell ref="C265:J265"/>
-    <mergeCell ref="C278:D278"/>
-    <mergeCell ref="C280:D280"/>
-    <mergeCell ref="C282:D282"/>
-    <mergeCell ref="C285:D285"/>
-    <mergeCell ref="C287:D287"/>
-    <mergeCell ref="E278:J278"/>
-    <mergeCell ref="E280:J280"/>
-    <mergeCell ref="E282:J282"/>
-    <mergeCell ref="E285:J285"/>
-    <mergeCell ref="E287:J287"/>
-    <mergeCell ref="C283:O283"/>
-    <mergeCell ref="C286:J286"/>
-    <mergeCell ref="C284:J284"/>
-    <mergeCell ref="C281:J281"/>
-    <mergeCell ref="C279:J279"/>
-    <mergeCell ref="K279:K280"/>
-    <mergeCell ref="L279:L280"/>
-    <mergeCell ref="M279:M280"/>
-    <mergeCell ref="N279:N280"/>
-    <mergeCell ref="O279:O280"/>
-    <mergeCell ref="K281:K282"/>
-    <mergeCell ref="L281:L282"/>
-    <mergeCell ref="M281:M282"/>
-    <mergeCell ref="N281:N282"/>
-    <mergeCell ref="A281:B282"/>
-    <mergeCell ref="A284:B285"/>
-    <mergeCell ref="A262:B263"/>
-    <mergeCell ref="A265:B266"/>
-    <mergeCell ref="A267:B268"/>
-    <mergeCell ref="A269:B270"/>
-    <mergeCell ref="A271:B272"/>
-    <mergeCell ref="A252:B253"/>
-    <mergeCell ref="A254:B255"/>
-    <mergeCell ref="A256:B257"/>
-    <mergeCell ref="A258:B259"/>
-    <mergeCell ref="A260:B261"/>
-    <mergeCell ref="O252:O253"/>
-    <mergeCell ref="L254:L255"/>
-    <mergeCell ref="M254:M255"/>
-    <mergeCell ref="N254:N255"/>
-    <mergeCell ref="O254:O255"/>
-    <mergeCell ref="A286:B287"/>
-    <mergeCell ref="K252:K253"/>
-    <mergeCell ref="L252:L253"/>
-    <mergeCell ref="M252:M253"/>
-    <mergeCell ref="N252:N253"/>
-    <mergeCell ref="L256:L257"/>
-    <mergeCell ref="M256:M257"/>
-    <mergeCell ref="N256:N257"/>
-    <mergeCell ref="L260:L261"/>
-    <mergeCell ref="M260:M261"/>
-    <mergeCell ref="N260:N261"/>
-    <mergeCell ref="K254:K255"/>
-    <mergeCell ref="K256:K257"/>
-    <mergeCell ref="K258:K259"/>
-    <mergeCell ref="K260:K261"/>
-    <mergeCell ref="K262:K263"/>
-    <mergeCell ref="A275:B276"/>
-    <mergeCell ref="A277:B278"/>
-    <mergeCell ref="A279:B280"/>
-    <mergeCell ref="O260:O261"/>
-    <mergeCell ref="L262:L263"/>
-    <mergeCell ref="M262:M263"/>
-    <mergeCell ref="N262:N263"/>
-    <mergeCell ref="O262:O263"/>
-    <mergeCell ref="O256:O257"/>
-    <mergeCell ref="L258:L259"/>
-    <mergeCell ref="M258:M259"/>
-    <mergeCell ref="N258:N259"/>
-    <mergeCell ref="O258:O259"/>
-    <mergeCell ref="L271:L272"/>
-    <mergeCell ref="M271:M272"/>
-    <mergeCell ref="N271:N272"/>
-    <mergeCell ref="O271:O272"/>
-    <mergeCell ref="K267:K268"/>
-    <mergeCell ref="K269:K270"/>
-    <mergeCell ref="K271:K272"/>
-    <mergeCell ref="L267:L268"/>
-    <mergeCell ref="M267:M268"/>
-    <mergeCell ref="N267:N268"/>
-    <mergeCell ref="O267:O268"/>
-    <mergeCell ref="L269:L270"/>
-    <mergeCell ref="M269:M270"/>
-    <mergeCell ref="N269:N270"/>
-    <mergeCell ref="O269:O270"/>
-    <mergeCell ref="K277:K278"/>
-    <mergeCell ref="L277:L278"/>
-    <mergeCell ref="M277:M278"/>
-    <mergeCell ref="N277:N278"/>
-    <mergeCell ref="O277:O278"/>
-    <mergeCell ref="K275:K276"/>
-    <mergeCell ref="L275:L276"/>
-    <mergeCell ref="M275:M276"/>
-    <mergeCell ref="N275:N276"/>
-    <mergeCell ref="O275:O276"/>
-    <mergeCell ref="L284:L285"/>
-    <mergeCell ref="M284:M285"/>
-    <mergeCell ref="N284:N285"/>
-    <mergeCell ref="O284:O285"/>
-    <mergeCell ref="K286:K287"/>
-    <mergeCell ref="L286:L287"/>
-    <mergeCell ref="M286:M287"/>
-    <mergeCell ref="N286:N287"/>
-    <mergeCell ref="O286:O287"/>
   </mergeCells>
   <pageMargins left="1.0900000000000001" right="0.7" top="0.7" bottom="1.07" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
